--- a/src/test/resources/TestExcelFile/TestPOi.xlsx
+++ b/src/test/resources/TestExcelFile/TestPOi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkarsulakhe/eclipse-workspace/Amazon_Testing_Demo/src/test/resources/TestExcelFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83397BC3-E91C-A54E-A8E8-BFC728E87171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCE8E9-22E8-0747-9ABC-6C451A1D9D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15780" xr2:uid="{3136E78E-CAEE-0E49-B47F-A4F456527D3B}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>izmpfB_bi?LxF+2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>testpest217@gmail.com</t>
   </si>
@@ -424,7 +421,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -435,24 +432,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
